--- a/src/workflow/4_PRIM/t3b_sdiscovery/t3f4_predominant_ranges_a1_e1_Experiment.xlsx
+++ b/src/workflow/4_PRIM/t3b_sdiscovery/t3f4_predominant_ranges_a1_e1_Experiment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="33">
   <si>
     <t>Outcome_Type</t>
   </si>
@@ -52,43 +52,67 @@
     <t>Risk</t>
   </si>
   <si>
-    <t>Emissions National</t>
-  </si>
-  <si>
-    <t>Benefit</t>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Emissions</t>
   </si>
   <si>
     <t>All</t>
   </si>
   <si>
+    <t>41-50</t>
+  </si>
+  <si>
     <t>21-30</t>
   </si>
   <si>
     <t>31-40</t>
   </si>
   <si>
-    <t>41-50</t>
-  </si>
-  <si>
-    <t>Emissions EneTra</t>
-  </si>
-  <si>
-    <t>Benefit Waste</t>
-  </si>
-  <si>
-    <t>Benefit EneTra</t>
-  </si>
-  <si>
-    <t>Generation renewables</t>
-  </si>
-  <si>
-    <t>intermediary</t>
+    <t>Capital Costs ICE Transport</t>
+  </si>
+  <si>
+    <t>Variable Costs Crops</t>
+  </si>
+  <si>
+    <t>Capital Costs Electric Transport</t>
+  </si>
+  <si>
+    <t>Fixed Costs Electric Transport</t>
+  </si>
+  <si>
+    <t>Fixed Costs ICE Transport</t>
+  </si>
+  <si>
+    <t>Fuel Demand</t>
+  </si>
+  <si>
+    <t>Capital Costs Industry</t>
+  </si>
+  <si>
+    <t>Fixed Costs Crops</t>
+  </si>
+  <si>
+    <t>Residential Demand</t>
+  </si>
+  <si>
+    <t>Variable Costs Import Fuels</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
   </si>
   <si>
     <t>definitive</t>
   </si>
   <si>
+    <t>trade-off</t>
+  </si>
+  <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>high/low average</t>
   </si>
 </sst>
 </file>
@@ -446,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,22 +522,22 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>0.1245678771645014</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.5056013323264668</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -524,28 +548,28 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>0.1823465314875461</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.3787449092061057</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -556,28 +580,28 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>0.1245684577393497</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.9287400488937616</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -585,31 +609,31 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>0.3560484383820371</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.6374235903690753</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -617,31 +641,31 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F6">
-        <v>0.1165602183557246</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.5690174228113706</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -649,31 +673,31 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>0.4585199116760353</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.6136669012953799</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -681,31 +705,31 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>0.2940488059012736</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.6869590683142408</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -713,31 +737,31 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>0.6431545887531684</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.391144616852477</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -745,31 +769,31 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>0.2020064488390289</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.6374235903691994</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -777,31 +801,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.9732000842879676</v>
+        <v>0.8862964179649708</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -809,19 +833,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>0.1245678771645014</v>
+        <v>0.3074666125550363</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -830,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -841,19 +865,19 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F13">
-        <v>0.3560484383820371</v>
+        <v>0.2468521387886763</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -862,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -873,31 +897,31 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F14">
-        <v>0.1165602183557246</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.4993624934360667</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -905,31 +929,31 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F15">
-        <v>0.4585199116760353</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.779759765373822</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -937,19 +961,19 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F16">
-        <v>0.1823465314875461</v>
+        <v>0.2024082759819999</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -958,10 +982,10 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -969,19 +993,19 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F17">
-        <v>0.2940488059012736</v>
+        <v>0.2475520510669343</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -990,10 +1014,10 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1001,31 +1025,31 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F18">
-        <v>0.1245684577393497</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0.4993624935422945</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1033,19 +1057,19 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F19">
-        <v>0.6431545887531684</v>
+        <v>0.2024082759820002</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1054,10 +1078,10 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1065,19 +1089,19 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F20">
-        <v>0.2020064488390289</v>
+        <v>0.1416866362314457</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1086,10 +1110,10 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1097,388 +1121,388 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.9732000842879676</v>
+        <v>0.9169627092464412</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.2474535593058302</v>
       </c>
       <c r="G22">
-        <v>0.9226881907134864</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6605026644627077</v>
+        <v>0.499362493473246</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6401564036187503</v>
+        <v>0.7797597653738002</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.2024082759820001</v>
       </c>
       <c r="G25">
-        <v>0.1841272760581626</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J25" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.3762267355575715</v>
       </c>
       <c r="G26">
-        <v>0.7688159206958209</v>
+        <v>0.3762267355575715</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.5089088654167908</v>
+        <v>0.3787449092061057</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J27" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.2024082759819999</v>
       </c>
       <c r="G28">
-        <v>0.2872248114066432</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J28" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.9370536182115632</v>
+        <v>0.6374235903690753</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J29" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.2937384306612929</v>
+        <v>0.5690174228113706</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0.8055059487073772</v>
+        <v>0.6136669012953799</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0.9452861305831732</v>
+        <v>0.4993624934360667</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J32" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -1487,94 +1511,94 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.9226881907134864</v>
+        <v>0.779759765373822</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J33" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.4143228522728433</v>
       </c>
       <c r="G34">
-        <v>0.1841272760581626</v>
+        <v>0.4143228522728433</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J34" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.3193483339597056</v>
       </c>
       <c r="G35">
-        <v>0.7688159206958209</v>
+        <v>0.3193483339597056</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J35" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -1583,30 +1607,30 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.6605026644627077</v>
+        <v>0.7771931498078203</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J36" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -1615,30 +1639,30 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.5443523469734856</v>
       </c>
       <c r="G37">
-        <v>0.5089088654167908</v>
+        <v>0.5443523469734856</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J37" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -1647,62 +1671,62 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0.2872248114066432</v>
+        <v>0.4993624935422945</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J38" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>0.3074666125550363</v>
       </c>
       <c r="G39">
-        <v>0.9370536182115632</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J39" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -1714,27 +1738,27 @@
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>0.2474535593058302</v>
       </c>
       <c r="G40">
-        <v>0.6401564036187503</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J40" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -1743,30 +1767,30 @@
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.2937384306612929</v>
+        <v>0.499362493473246</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J41" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -1775,30 +1799,30 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0.8055059487073772</v>
+        <v>0.7797597653738002</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J42" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -1807,25 +1831,1113 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43">
+        <v>0.2024082759820001</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44">
+        <v>0.2751643833834696</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0.6901455762720212</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46">
+        <v>0.2974369534942295</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47">
+        <v>0.0376896086885084</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48">
+        <v>0.09221339755299759</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49">
+        <v>0.1432369909874633</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50">
+        <v>0.1536229383405746</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0.7226699547063066</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
         <v>21</v>
       </c>
-      <c r="E43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0.9452861305831732</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0.8561526623414644</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53">
+        <v>0.0376896086888829</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54">
+        <v>0.0922133976947499</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
         <v>23</v>
       </c>
-      <c r="J43" t="s">
+      <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55">
+        <v>0.3074666125550363</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56">
+        <v>0.1389131854426273</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0.5701952064590666</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0.5056013323264668</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
         <v>24</v>
+      </c>
+      <c r="E59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59">
+        <v>0.2673929407960959</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60">
+        <v>0.0121243190531637</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>29</v>
+      </c>
+      <c r="J60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61">
+        <v>0.2595961362797084</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62">
+        <v>0.3074666125550363</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63">
+        <v>0.4226797949212681</v>
+      </c>
+      <c r="G63">
+        <v>0.4226797949212681</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63" t="s">
+        <v>30</v>
+      </c>
+      <c r="J63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0.597873454299244</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65">
+        <v>0.2974369534942295</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>29</v>
+      </c>
+      <c r="J65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66">
+        <v>0.1525412747423021</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67">
+        <v>0.09221339755299759</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68">
+        <v>0.1389131854426273</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69">
+        <v>0.0121243190531637</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70">
+        <v>0.1432369909874633</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71">
+        <v>0.1536229383405746</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0.7226699547063066</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0.8561526623414644</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74">
+        <v>0.0376896086888829</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75">
+        <v>0.0922133976947499</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76">
+        <v>0.2595961362797084</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77">
+        <v>0.3074666125550363</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>29</v>
+      </c>
+      <c r="J77" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
